--- a/medicine/Psychotrope/Distillerie_Mavela/Distillerie_Mavela.xlsx
+++ b/medicine/Psychotrope/Distillerie_Mavela/Distillerie_Mavela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Domaine Mavela est une distillerie artisanale d'eaux-de-vie et de whiskys en Corse.
@@ -512,9 +524,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La distillerie est située sur la commune d'Aléria[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distillerie est située sur la commune d'Aléria.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie s'est dotée en 1999 d'un alambic Holstein, d’une capacité de 1 000 L et conçu pour distiller les principales baies et des fruits endémiques de l’ile : myrte, cédrat, châtaigne, ainsi que les framboises, prunes et poires william's cultivées à proximité du domaine par des agriculteurs locaux dans le respect de l’environnement.
 </t>
@@ -574,7 +590,9 @@
           <t>Les eaux-de-vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La cueillette des baies sauvages du maquis ainsi que la récolte des fruits se fait à la main, comme toutes les étapes précédant la distillation : épluchage, mise en macération et filtrage.
 La période de distillation s’étale sur toute l’année et s’effectue au rythme des saisons :
@@ -611,11 +629,13 @@
           <t>Les whiskys</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les whiskys P&amp;M (pour Pietra &amp; Mavela) produits sont fabriqués avec de la bière distillée. Sa fabrication nécessite une brasserie (Pietra) où se font les étapes de brassage et de fermentation. Le wash P&amp;M est ensuite distillé chez Mavela[2], pour sa transformation en alcool pur. C’est dans un alambic Holstein que se feront les distillations nécessaires à cette transformation.
-Le whisky P&amp;M est ensuite élevé[3] en fûts de chêne, dilué à l’eau de source et assemblé au domaine de Mavela. La maturation se fait en fûts d'eau-de-vie de châtaigne et en fûts de malvoisie et de muscat du domaine de Gentile.
-Le Whisky P&amp;M Single Malt 7 years a obtenu une note de 95/100 dans la bible du whisky de Jim Murray 2014, le classant au 5e rang mondial[4],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les whiskys P&amp;M (pour Pietra &amp; Mavela) produits sont fabriqués avec de la bière distillée. Sa fabrication nécessite une brasserie (Pietra) où se font les étapes de brassage et de fermentation. Le wash P&amp;M est ensuite distillé chez Mavela, pour sa transformation en alcool pur. C’est dans un alambic Holstein que se feront les distillations nécessaires à cette transformation.
+Le whisky P&amp;M est ensuite élevé en fûts de chêne, dilué à l’eau de source et assemblé au domaine de Mavela. La maturation se fait en fûts d'eau-de-vie de châtaigne et en fûts de malvoisie et de muscat du domaine de Gentile.
+Le Whisky P&amp;M Single Malt 7 years a obtenu une note de 95/100 dans la bible du whisky de Jim Murray 2014, le classant au 5e rang mondial,.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Embouteillages de whiskys</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>P&amp;M Single Malt Whisky 7 ans - 42 % - Single.
 P&amp;M Single Malt Whisky Signature - 42 % - Single.
